--- a/Question_Set2/Role-specific skills/US Corporate Law.xlsx
+++ b/Question_Set2/Role-specific skills/US Corporate Law.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You work as a paralegal at a corporate law firm. A client asks you to form a C Corporation for their small business. The client is the only person at the company and sells several handmade chairs they whittle each year.How could you best help this client with their business formation?', 'ques_type': 2, 'options': ['Advise that a Limited Liability Corporation or sole proprietorship structure may be more beneficial for the client.', 'Advise formulation of the corporation in Delaware for lawsuit protections.', 'Advise the seeking of investors before forming the corporation.', 'Advise that incorporation would provide no benefits to the client.'], 'score': 'Advise that a Limited Liability Corporation or sole proprietorship structure may be more beneficial for the client.'}, {'title': 'You work as a junior attorney at a civil litigation firm. A potential new client tells you how the client and a friend discussed forming a C Corporation at a restaurant that served food, as well as alcoholic beverages. The friend wrote down the details about the corporation on a napkin. Since then, the friendship has ended. Your client wants to know if that corporation was formed because of the written description on the napkin.How should you respond to the client?', 'ques_type': 2, 'options': ['A corporation was formed when the description of the company was made in writing with a specific intent.', 'A corporation was only formed if your client signed the napkin.', 'A corporation requires legal filings to form.', 'A corporation probably was not formed because of the presence of alcohol.'], 'score': 'A corporation requires legal filings to form.'}, {'title': 'You work at a large corporate law firm that specializes in publicly traded companies. A client who works at a major soda company comes in and tells you that their company is insolvent and will need to declare bankruptcy. The client asks you if the companies ever survive a bankruptcy.How should you respond to the client?', 'ques_type': 2, 'options': ['Companies in bankruptcy will cease operation and sell all assets to satisfy debts.', 'Companies in bankruptcy may only continue operations if another company buys their debts.', 'Companies can use bankruptcy to discharge debts they wish to avoid paying repeatedly.', 'Companies can potentially use bankruptcy to restructure their debts and continue operations.'], 'score': 'Companies can potentially use bankruptcy to restructure their debts and continue operations.'}, {'title': 'You work as a paralegal at a small business-focused law firm. A client who owns a bungee jumping company comes into your office. The client tells you that a customer recently broke their leg while bungee jumping due to very poor safety policies. The client tells you that he makes each customer sign a liability waiver.Can the customer still sue the client and recover damages?', 'ques_type': 2, 'options': ['No, a customer bungee jumping “assumes the risk” during the activity.', 'No, a customer who signs a waiver creates a binding contract.', 'Yes, to the extent the claim is uncovered by the waiver.', 'Yes, a waiver is merely an element in the court’s liability assessment.'], 'score': 'Yes, a waiver is merely an element in the court’s liability assessment.'}]</t>
+    <t>questions = [
+    {
+        "title": "You work as a paralegal at a corporate law firm. A client asks you to form a C Corporation for their small business. The client is the only person at the company and sells several handmade chairs they whittle each year.How could you best help this client with their business formation?",
+        "ques_type": 2,
+        "options": [
+            "Advise that a Limited Liability Corporation or sole proprietorship structure may be more beneficial for the client.",
+            "Advise formulation of the corporation in Delaware for lawsuit protections.",
+            "Advise the seeking of investors before forming the corporation.",
+            "Advise that incorporation would provide no benefits to the client."
+        ],
+        "score": "Advise that a Limited Liability Corporation or sole proprietorship structure may be more beneficial for the client."
+    },
+    {
+        "title": "You work as a junior attorney at a civil litigation firm. A potential new client tells you how the client and a friend discussed forming a C Corporation at a restaurant that served food, as well as alcoholic beverages. The friend wrote down the details about the corporation on a napkin. Since then, the friendship has ended. Your client wants to know if that corporation was formed because of the written description on the napkin.How should you respond to the client?",
+        "ques_type": 2,
+        "options": [
+            "A corporation was formed when the description of the company was made in writing with a specific intent.",
+            "A corporation was only formed if your client signed the napkin.",
+            "A corporation requires legal filings to form.",
+            "A corporation probably was not formed because of the presence of alcohol."
+        ],
+        "score": "A corporation requires legal filings to form."
+    },
+    {
+        "title": "You work at a large corporate law firm that specializes in publicly traded companies. A client who works at a major soda company comes in and tells you that their company is insolvent and will need to declare bankruptcy. The client asks you if the companies ever survive a bankruptcy.How should you respond to the client?",
+        "ques_type": 2,
+        "options": [
+            "Companies in bankruptcy will cease operation and sell all assets to satisfy debts.",
+            "Companies in bankruptcy may only continue operations if another company buys their debts.",
+            "Companies can use bankruptcy to discharge debts they wish to avoid paying repeatedly.",
+            "Companies can potentially use bankruptcy to restructure their debts and continue operations."
+        ],
+        "score": "Companies can potentially use bankruptcy to restructure their debts and continue operations."
+    },
+    {
+        "title": "You work as a paralegal at a small business-focused law firm. A client who owns a bungee jumping company comes into your office. The client tells you that a customer recently broke their leg while bungee jumping due to very poor safety policies. The client tells you that he makes each customer sign a liability waiver.Can the customer still sue the client and recover damages?",
+        "ques_type": 2,
+        "options": [
+            "No, a customer bungee jumping \u201cassumes the risk\u201d during the activity.",
+            "No, a customer who signs a waiver creates a binding contract.",
+            "Yes, to the extent the claim is uncovered by the waiver.",
+            "Yes, a waiver is merely an element in the court\u2019s liability assessment."
+        ],
+        "score": "Yes, a waiver is merely an element in the court\u2019s liability assessment."
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
